--- a/data/clients.xlsx
+++ b/data/clients.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -41,13 +41,10 @@
     <t>Test test from XSLX 3</t>
   </si>
   <si>
-    <t>Test2</t>
+    <t>John Doe</t>
   </si>
   <si>
     <t>admin@admin.uz</t>
-  </si>
-  <si>
-    <t>John Doe</t>
   </si>
 </sst>
 </file>
@@ -383,16 +380,13 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:XFD14"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="4" max="4" width="12" customWidth="true" style="0"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -452,7 +446,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -461,27 +455,13 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>79999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
         <v>79999999999</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
